--- a/fragen.xlsx
+++ b/fragen.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="DieseArbeitsmappe" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/30f3434f65a1fd67/Weiterbildung/GPM Basis/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/danielschmidt/GPMTests/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{75D78804-898B-7745-B614-072C72386114}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8DAE165-F0AD-8842-ABC1-3BD12AFA7592}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="31960" yWindow="7240" windowWidth="27840" windowHeight="16740" xr2:uid="{9E71DAE9-0524-A641-9A5B-746091223EB0}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="90">
   <si>
     <t>Jedes 10. Mal springt das Auto nicht an. Berechnen Sie die Eintrittswahrscheinlichkeit und Entscheiden Sie, ob Sie das Risiko eingehen oder nicht.</t>
   </si>
@@ -69,24 +69,6 @@
   </si>
   <si>
     <t xml:space="preserve">Was ist ein komplexes Projekt? </t>
-  </si>
-  <si>
-    <t>Formulieren Sie für das Fallbeispiel...</t>
-  </si>
-  <si>
-    <t xml:space="preserve">zwei operationalisierte Leistungsziele </t>
-  </si>
-  <si>
-    <t xml:space="preserve">zwei operationalisierte Kostenziele </t>
-  </si>
-  <si>
-    <t xml:space="preserve">zwei operationalisierte Terminziele </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ein operationalisiertes Sozialziel </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ein operationalisiertes Nichtziel </t>
   </si>
   <si>
     <t xml:space="preserve">Welche fünf Zielbeziehungen lassen sich unterscheiden? Für zwei der fünf Zielbeziehungen formulieren Sie bitte Ziele passend zum Fallbeispiel. </t>
@@ -751,10 +733,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6999853A-DF4E-8A45-9EFE-36E2CA79E988}">
   <sheetPr codeName="Tabelle1"/>
-  <dimension ref="A1:B97"/>
+  <dimension ref="A1:B91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A78" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -829,37 +811,37 @@
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" s="3" t="s">
         <v>20</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A20" s="2" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.2">
@@ -878,17 +860,17 @@
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A24" s="2" t="s">
+      <c r="A24" s="3" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A25" s="2" t="s">
+      <c r="A25" s="3" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A26" s="3" t="s">
+      <c r="A26" s="2" t="s">
         <v>26</v>
       </c>
     </row>
@@ -908,38 +890,38 @@
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A30" s="3" t="s">
+      <c r="A30" s="2" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A31" s="3" t="s">
-        <v>31</v>
+      <c r="A31" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.2">
@@ -978,7 +960,7 @@
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A44" s="2" t="s">
+      <c r="A44" s="4" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1008,7 +990,7 @@
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A50" s="4" t="s">
+      <c r="A50" s="2" t="s">
         <v>49</v>
       </c>
     </row>
@@ -1044,39 +1026,39 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
-        <v>56</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="B57" s="1"/>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B63" s="1"/>
+        <v>61</v>
+      </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
@@ -1084,12 +1066,12 @@
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A65" s="2" t="s">
+      <c r="A65" s="4" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A66" s="2" t="s">
+      <c r="A66" s="4" t="s">
         <v>64</v>
       </c>
     </row>
@@ -1114,12 +1096,12 @@
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A71" s="4" t="s">
+      <c r="A71" s="2" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A72" s="4" t="s">
+      <c r="A72" s="2" t="s">
         <v>70</v>
       </c>
     </row>
@@ -1216,36 +1198,6 @@
     <row r="91" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
         <v>89</v>
-      </c>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A92" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A93" s="2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A94" s="2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A95" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A96" s="2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A97" s="2" t="s">
-        <v>95</v>
       </c>
     </row>
   </sheetData>
